--- a/Analytics/BIGFIVE/TGMXcorners_bf.xlsx
+++ b/Analytics/BIGFIVE/TGMXcorners_bf.xlsx
@@ -38,13 +38,13 @@
     <t>E0</t>
   </si>
   <si>
+    <t>SP1</t>
+  </si>
+  <si>
     <t>I1</t>
   </si>
   <si>
     <t>D1</t>
-  </si>
-  <si>
-    <t>SP1</t>
   </si>
   <si>
     <t>F1</t>
@@ -115,7 +115,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>700263.0</v>
+        <v>159106.0</v>
       </c>
     </row>
     <row r="3">
@@ -126,7 +126,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>493839.0</v>
+        <v>155372.0</v>
       </c>
     </row>
     <row r="4">
@@ -137,7 +137,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>483793.0</v>
+        <v>137051.0</v>
       </c>
     </row>
     <row r="5">
@@ -148,7 +148,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>469131.0</v>
+        <v>125680.0</v>
       </c>
     </row>
     <row r="6">
@@ -159,7 +159,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>388705.0</v>
+        <v>120154.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/BIGFIVE/TGMXcorners_bf.xlsx
+++ b/Analytics/BIGFIVE/TGMXcorners_bf.xlsx
@@ -115,7 +115,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>159106.0</v>
+        <v>253889.0</v>
       </c>
     </row>
     <row r="3">
@@ -126,7 +126,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>155372.0</v>
+        <v>214484.0</v>
       </c>
     </row>
     <row r="4">
@@ -137,7 +137,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>137051.0</v>
+        <v>191179.0</v>
       </c>
     </row>
     <row r="5">
@@ -148,7 +148,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>125680.0</v>
+        <v>188263.0</v>
       </c>
     </row>
     <row r="6">
@@ -159,7 +159,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>120154.0</v>
+        <v>172586.0</v>
       </c>
     </row>
   </sheetData>
